--- a/Manual Test Case Cicle Staging.xlsx
+++ b/Manual Test Case Cicle Staging.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17784" windowHeight="17711"/>
+    <workbookView windowWidth="20195" windowHeight="8472"/>
   </bookViews>
   <sheets>
     <sheet name="WEB" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="88">
   <si>
     <t>NO</t>
   </si>
@@ -25,6 +25,9 @@
     <t>CODE TEST</t>
   </si>
   <si>
+    <t>TYPE</t>
+  </si>
+  <si>
     <t>SCENARIO TEST</t>
   </si>
   <si>
@@ -46,7 +49,10 @@
     <t>Group Chat</t>
   </si>
   <si>
-    <t>GC-01</t>
+    <t>GCP-01</t>
+  </si>
+  <si>
+    <t>Positive</t>
   </si>
   <si>
     <t xml:space="preserve">User can go to group chat menu </t>
@@ -70,7 +76,7 @@
     <t>Click group chat box menu</t>
   </si>
   <si>
-    <t>GC-02</t>
+    <t>GCP-02</t>
   </si>
   <si>
     <t>User send chat</t>
@@ -79,13 +85,13 @@
     <t>User successfully send chat</t>
   </si>
   <si>
-    <t>Type message "Ini group chat</t>
+    <t>Type message "Ini group chat"</t>
   </si>
   <si>
     <t>Send Message</t>
   </si>
   <si>
-    <t>GC-03</t>
+    <t>GCP-03</t>
   </si>
   <si>
     <t>User send attachment (photo)</t>
@@ -97,19 +103,19 @@
     <t>Send attachment</t>
   </si>
   <si>
-    <t>GC-04</t>
+    <t>GCP-04</t>
   </si>
   <si>
     <t>User send attachment (video)</t>
   </si>
   <si>
-    <t>GC-05</t>
+    <t>GCP-05</t>
   </si>
   <si>
     <t>User send attachment (file)</t>
   </si>
   <si>
-    <t>GC-06</t>
+    <t>GCP-06</t>
   </si>
   <si>
     <t>User send mention chat</t>
@@ -124,7 +130,52 @@
     <t>Choose mention member</t>
   </si>
   <si>
-    <t>GC-07</t>
+    <t>GCP-07</t>
+  </si>
+  <si>
+    <t>User delete chat (mention chat)</t>
+  </si>
+  <si>
+    <t>User successfully delete chat (mention chat)</t>
+  </si>
+  <si>
+    <t>Click menu message</t>
+  </si>
+  <si>
+    <t>Click delete message</t>
+  </si>
+  <si>
+    <t>Click delete button</t>
+  </si>
+  <si>
+    <t>GCP-08</t>
+  </si>
+  <si>
+    <t>User delete chat (file)</t>
+  </si>
+  <si>
+    <t>User successfully delete chat (file)</t>
+  </si>
+  <si>
+    <t>GCP-09</t>
+  </si>
+  <si>
+    <t>User delete chat (video)</t>
+  </si>
+  <si>
+    <t>User successfully delete chat (video)</t>
+  </si>
+  <si>
+    <t>GCP-10</t>
+  </si>
+  <si>
+    <t>User delete chat (photo)</t>
+  </si>
+  <si>
+    <t>User successfully delete chat (photo)</t>
+  </si>
+  <si>
+    <t>GCP-11</t>
   </si>
   <si>
     <t>User delete chat</t>
@@ -133,13 +184,100 @@
     <t>User successfully delete chat</t>
   </si>
   <si>
-    <t>Click menu message</t>
-  </si>
-  <si>
-    <t>Click delete message</t>
-  </si>
-  <si>
-    <t>Click delete button</t>
+    <t>GCN-01</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>User send chat only with space</t>
+  </si>
+  <si>
+    <t>User unsuccessfully delete chat</t>
+  </si>
+  <si>
+    <t>User can still send chats</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Type message " "</t>
+  </si>
+  <si>
+    <t>Blast</t>
+  </si>
+  <si>
+    <t>BLP-01</t>
+  </si>
+  <si>
+    <t>User can go to blast menu</t>
+  </si>
+  <si>
+    <t>User successfully go to blast menu</t>
+  </si>
+  <si>
+    <t>Click blast box menu</t>
+  </si>
+  <si>
+    <t>BLP-02</t>
+  </si>
+  <si>
+    <t>User create blast</t>
+  </si>
+  <si>
+    <t>User successfully create blast</t>
+  </si>
+  <si>
+    <t>Click create blast button</t>
+  </si>
+  <si>
+    <t>Type title</t>
+  </si>
+  <si>
+    <t>Type story</t>
+  </si>
+  <si>
+    <t>Click publish button</t>
+  </si>
+  <si>
+    <t>BLP-03</t>
+  </si>
+  <si>
+    <t>User create blast with attachment (photo)</t>
+  </si>
+  <si>
+    <t>User successfully create blast with attachment (photo)</t>
+  </si>
+  <si>
+    <t>Click insert files</t>
+  </si>
+  <si>
+    <t>Send attachment (photo)</t>
+  </si>
+  <si>
+    <t>BLP-04</t>
+  </si>
+  <si>
+    <t>User create blast with attachment (video)</t>
+  </si>
+  <si>
+    <t>User successfully create blast with attachment (video)</t>
+  </si>
+  <si>
+    <t>Send attachment (video)</t>
+  </si>
+  <si>
+    <t>BLP-05</t>
+  </si>
+  <si>
+    <t>User create blast with attachment (files)</t>
+  </si>
+  <si>
+    <t>User successfully create blast with attachment (files)</t>
+  </si>
+  <si>
+    <t>Send attachment (files)</t>
   </si>
 </sst>
 </file>
@@ -147,12 +285,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,13 +307,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -185,43 +316,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,7 +338,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,20 +357,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -297,6 +384,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -311,9 +406,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,37 +459,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,97 +621,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,44 +643,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -537,50 +668,39 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,6 +716,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,173 +753,210 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1118,10 +1284,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A4:J37"/>
+  <dimension ref="A4:K100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1129,448 +1295,1193 @@
     <col min="1" max="1" width="3.77777777777778" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.5555555555556" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="28.8888888888889" customWidth="1"/>
-    <col min="5" max="5" width="3.77777777777778" customWidth="1"/>
-    <col min="6" max="6" width="27.2222222222222" customWidth="1"/>
-    <col min="7" max="7" width="36" customWidth="1"/>
-    <col min="8" max="8" width="14.3333333333333" customWidth="1"/>
-    <col min="9" max="9" width="10.5555555555556" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="10" style="2" customWidth="1"/>
+    <col min="5" max="5" width="39" customWidth="1"/>
+    <col min="6" max="6" width="3.77777777777778" customWidth="1"/>
+    <col min="7" max="7" width="27.2222222222222" customWidth="1"/>
+    <col min="8" max="8" width="50.2222222222222" customWidth="1"/>
+    <col min="9" max="9" width="22.8888888888889" customWidth="1"/>
+    <col min="10" max="10" width="10.5555555555556" style="3" customWidth="1"/>
+    <col min="11" max="11" width="13.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:10">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:11">
+      <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="K4" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="E6">
+      <c r="D6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6">
         <v>1</v>
       </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="5:9">
-      <c r="E7">
+      <c r="I6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="6:10">
+      <c r="F7">
         <v>2</v>
       </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="5:9">
-      <c r="E8">
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="6:10">
+      <c r="F8">
         <v>3</v>
       </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>2</v>
       </c>
       <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="6:7">
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
         <v>18</v>
       </c>
-      <c r="D9" t="s">
+    </row>
+    <row r="11" spans="6:7">
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11" t="s">
         <v>19</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="5:6">
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="5:6">
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="5:6">
-      <c r="E12">
+    </row>
+    <row r="12" spans="6:7">
+      <c r="F12">
         <v>4</v>
       </c>
-      <c r="F12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="5:6">
-      <c r="E13">
+      <c r="G12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="6:7">
+      <c r="F13">
         <v>5</v>
       </c>
-      <c r="F13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="G13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14">
+        <v>25</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14">
         <v>1</v>
       </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
       <c r="G14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="5:6">
-      <c r="E15">
+        <v>27</v>
+      </c>
+      <c r="I14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="6:7">
+      <c r="F15">
         <v>2</v>
       </c>
-      <c r="F15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="5:6">
-      <c r="E16">
+      <c r="G15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="6:7">
+      <c r="F16">
         <v>3</v>
       </c>
-      <c r="F16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="5:6">
-      <c r="E17">
+      <c r="G16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="6:7">
+      <c r="F17">
         <v>4</v>
       </c>
-      <c r="F17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="G17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>4</v>
       </c>
       <c r="C18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" t="s">
         <v>27</v>
       </c>
-      <c r="D18" t="s">
+      <c r="I18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="6:7">
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="6:7">
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="6:7">
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21" t="s">
         <v>28</v>
       </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="5:6">
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="5:6">
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="5:6">
-      <c r="E21">
-        <v>4</v>
-      </c>
-      <c r="F21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1">
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22">
+        <v>31</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22">
         <v>1</v>
       </c>
-      <c r="F22" t="s">
-        <v>12</v>
-      </c>
       <c r="G22" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="5:6">
-      <c r="E23">
+        <v>27</v>
+      </c>
+      <c r="I22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="6:7">
+      <c r="F23">
         <v>2</v>
       </c>
-      <c r="F23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="5:6">
-      <c r="E24">
+      <c r="G23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="6:7">
+      <c r="F24">
         <v>3</v>
       </c>
-      <c r="F24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="5:6">
-      <c r="E25">
+      <c r="G24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="6:7">
+      <c r="F25">
         <v>4</v>
       </c>
-      <c r="F25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="G25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1">
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26">
+        <v>33</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26">
         <v>1</v>
       </c>
-      <c r="F26" t="s">
-        <v>12</v>
-      </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="5:6">
-      <c r="E27">
+        <v>35</v>
+      </c>
+      <c r="I26" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="6:7">
+      <c r="F27">
         <v>2</v>
       </c>
-      <c r="F27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="5:6">
-      <c r="E28">
+      <c r="G27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="6:7">
+      <c r="F28">
         <v>3</v>
       </c>
-      <c r="F28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="5:6">
-      <c r="E29">
+      <c r="G28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="6:7">
+      <c r="F29">
         <v>4</v>
       </c>
-      <c r="F29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="5:6">
-      <c r="E30">
+      <c r="G29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="6:7">
+      <c r="F30">
         <v>5</v>
       </c>
-      <c r="F30" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="5:6">
-      <c r="E31">
+      <c r="G30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="6:7">
+      <c r="F31">
         <v>6</v>
       </c>
-      <c r="F31" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="G31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1">
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>36</v>
-      </c>
-      <c r="D32" t="s">
-        <v>37</v>
-      </c>
-      <c r="E32">
+        <v>38</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32">
         <v>1</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" t="s">
+        <v>40</v>
+      </c>
+      <c r="I32" t="s">
+        <v>16</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="6:7">
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="6:7">
+      <c r="F34">
+        <v>3</v>
+      </c>
+      <c r="G34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="6:7">
+      <c r="F35">
+        <v>4</v>
+      </c>
+      <c r="G35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="6:7">
+      <c r="F36">
+        <v>5</v>
+      </c>
+      <c r="G36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="6:7">
+      <c r="F37">
+        <v>6</v>
+      </c>
+      <c r="G37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="1">
+        <v>8</v>
+      </c>
+      <c r="C38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G32" t="s">
-        <v>38</v>
-      </c>
-      <c r="H32" t="s">
+      <c r="E38" t="s">
+        <v>45</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="s">
         <v>14</v>
       </c>
-      <c r="I32" s="4" t="s">
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>16</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="6:7">
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="6:7">
+      <c r="F40">
+        <v>3</v>
+      </c>
+      <c r="G40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="6:7">
+      <c r="F41">
+        <v>4</v>
+      </c>
+      <c r="G41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="6:7">
+      <c r="F42">
+        <v>5</v>
+      </c>
+      <c r="G42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="6:7">
+      <c r="F43">
+        <v>6</v>
+      </c>
+      <c r="G43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="1">
+        <v>9</v>
+      </c>
+      <c r="C44" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" t="s">
+        <v>48</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" t="s">
+        <v>49</v>
+      </c>
+      <c r="I44" t="s">
+        <v>16</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="6:7">
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="6:7">
+      <c r="F46">
+        <v>3</v>
+      </c>
+      <c r="G46" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="6:7">
+      <c r="F47">
+        <v>4</v>
+      </c>
+      <c r="G47" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="6:7">
+      <c r="F48">
+        <v>5</v>
+      </c>
+      <c r="G48" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="6:7">
+      <c r="F49">
+        <v>6</v>
+      </c>
+      <c r="G49" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="1">
+        <v>10</v>
+      </c>
+      <c r="C50" t="s">
+        <v>50</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" t="s">
+        <v>51</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" t="s">
+        <v>14</v>
+      </c>
+      <c r="H50" t="s">
+        <v>52</v>
+      </c>
+      <c r="I50" t="s">
+        <v>16</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="6:7">
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="6:7">
+      <c r="F52">
+        <v>3</v>
+      </c>
+      <c r="G52" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="6:7">
+      <c r="F53">
+        <v>4</v>
+      </c>
+      <c r="G53" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="6:7">
+      <c r="F54">
+        <v>5</v>
+      </c>
+      <c r="G54" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="6:7">
+      <c r="F55">
+        <v>6</v>
+      </c>
+      <c r="G55" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="1">
+        <v>11</v>
+      </c>
+      <c r="C56" t="s">
+        <v>53</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" t="s">
+        <v>54</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56" t="s">
+        <v>14</v>
+      </c>
+      <c r="H56" t="s">
+        <v>55</v>
+      </c>
+      <c r="I56" t="s">
+        <v>16</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="6:7">
+      <c r="F57">
+        <v>2</v>
+      </c>
+      <c r="G57" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="6:7">
+      <c r="F58">
+        <v>3</v>
+      </c>
+      <c r="G58" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="6:7">
+      <c r="F59">
+        <v>4</v>
+      </c>
+      <c r="G59" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="60" spans="6:7">
+      <c r="F60">
+        <v>5</v>
+      </c>
+      <c r="G60" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="61" spans="6:7">
+      <c r="F61">
+        <v>6</v>
+      </c>
+      <c r="G61" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="1">
+        <v>12</v>
+      </c>
+      <c r="C62" t="s">
+        <v>56</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E62" t="s">
+        <v>58</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62" t="s">
+        <v>14</v>
+      </c>
+      <c r="H62" t="s">
+        <v>59</v>
+      </c>
+      <c r="I62" t="s">
+        <v>60</v>
+      </c>
+      <c r="J62" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="6:7">
+      <c r="F63">
+        <v>2</v>
+      </c>
+      <c r="G63" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="6:7">
+      <c r="F64">
+        <v>3</v>
+      </c>
+      <c r="G64" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="6:7">
+      <c r="F65">
+        <v>4</v>
+      </c>
+      <c r="G65" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="6:7">
+      <c r="F66">
+        <v>5</v>
+      </c>
+      <c r="G66" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="1">
+        <v>13</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C67" t="s">
+        <v>64</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E67" t="s">
+        <v>65</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67" t="s">
+        <v>14</v>
+      </c>
+      <c r="H67" t="s">
+        <v>66</v>
+      </c>
+      <c r="I67" t="s">
+        <v>16</v>
+      </c>
+      <c r="J67" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="6:10">
+      <c r="F68">
+        <v>2</v>
+      </c>
+      <c r="G68" t="s">
+        <v>18</v>
+      </c>
+      <c r="J68" s="8"/>
+    </row>
+    <row r="69" spans="6:10">
+      <c r="F69">
+        <v>3</v>
+      </c>
+      <c r="G69" t="s">
+        <v>67</v>
+      </c>
+      <c r="J69" s="8"/>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="1">
+        <v>14</v>
+      </c>
+      <c r="C70" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E70" t="s">
+        <v>69</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70" t="s">
+        <v>14</v>
+      </c>
+      <c r="H70" t="s">
+        <v>70</v>
+      </c>
+      <c r="I70" t="s">
+        <v>16</v>
+      </c>
+      <c r="J70" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="6:7">
+      <c r="F71">
+        <v>2</v>
+      </c>
+      <c r="G71" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="6:7">
+      <c r="F72">
+        <v>3</v>
+      </c>
+      <c r="G72" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" spans="6:7">
+      <c r="F73">
+        <v>4</v>
+      </c>
+      <c r="G73" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="6:7">
+      <c r="F74">
+        <v>5</v>
+      </c>
+      <c r="G74" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="6:7">
+      <c r="F75">
+        <v>6</v>
+      </c>
+      <c r="G75" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="6:7">
+      <c r="F76">
+        <v>7</v>
+      </c>
+      <c r="G76" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="33" spans="5:6">
-      <c r="E33">
+      <c r="C77" t="s">
+        <v>75</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E77" t="s">
+        <v>76</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77" t="s">
+        <v>14</v>
+      </c>
+      <c r="H77" t="s">
+        <v>77</v>
+      </c>
+      <c r="I77" t="s">
+        <v>16</v>
+      </c>
+      <c r="J77" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="6:7">
+      <c r="F78">
         <v>2</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G78" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="6:7">
+      <c r="F79">
+        <v>3</v>
+      </c>
+      <c r="G79" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="80" spans="6:7">
+      <c r="F80">
+        <v>4</v>
+      </c>
+      <c r="G80" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="81" spans="6:7">
+      <c r="F81">
+        <v>5</v>
+      </c>
+      <c r="G81" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="82" spans="6:7">
+      <c r="F82">
+        <v>6</v>
+      </c>
+      <c r="G82" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="83" spans="6:7">
+      <c r="F83">
+        <v>7</v>
+      </c>
+      <c r="G83" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="84" spans="6:7">
+      <c r="F84">
+        <v>8</v>
+      </c>
+      <c r="G84" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="34" spans="5:6">
-      <c r="E34">
+      <c r="C85" t="s">
+        <v>80</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E85" t="s">
+        <v>81</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85" t="s">
+        <v>14</v>
+      </c>
+      <c r="H85" t="s">
+        <v>82</v>
+      </c>
+      <c r="I85" t="s">
+        <v>16</v>
+      </c>
+      <c r="J85" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="6:7">
+      <c r="F86">
+        <v>2</v>
+      </c>
+      <c r="G86" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="6:7">
+      <c r="F87">
         <v>3</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G87" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="88" spans="6:7">
+      <c r="F88">
+        <v>4</v>
+      </c>
+      <c r="G88" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="89" spans="6:7">
+      <c r="F89">
+        <v>5</v>
+      </c>
+      <c r="G89" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="90" spans="6:7">
+      <c r="F90">
+        <v>6</v>
+      </c>
+      <c r="G90" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="91" spans="6:7">
+      <c r="F91">
+        <v>7</v>
+      </c>
+      <c r="G91" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="92" spans="6:7">
+      <c r="F92">
+        <v>8</v>
+      </c>
+      <c r="G92" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="35" spans="5:6">
-      <c r="E35">
+      <c r="C93" t="s">
+        <v>84</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E93" t="s">
+        <v>85</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93" t="s">
+        <v>14</v>
+      </c>
+      <c r="H93" t="s">
+        <v>86</v>
+      </c>
+      <c r="I93" t="s">
+        <v>16</v>
+      </c>
+      <c r="J93" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="6:7">
+      <c r="F94">
+        <v>2</v>
+      </c>
+      <c r="G94" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" spans="6:7">
+      <c r="F95">
+        <v>3</v>
+      </c>
+      <c r="G95" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="96" spans="6:7">
+      <c r="F96">
         <v>4</v>
       </c>
-      <c r="F35" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="5:6">
-      <c r="E36">
+      <c r="G96" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="97" spans="6:7">
+      <c r="F97">
         <v>5</v>
       </c>
-      <c r="F36" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="5:6">
-      <c r="E37">
+      <c r="G97" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="98" spans="6:7">
+      <c r="F98">
         <v>6</v>
       </c>
-      <c r="F37" t="s">
-        <v>41</v>
+      <c r="G98" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="99" spans="6:7">
+      <c r="F99">
+        <v>7</v>
+      </c>
+      <c r="G99" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="100" spans="6:7">
+      <c r="F100">
+        <v>8</v>
+      </c>
+      <c r="G100" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
@@ -1581,9 +2492,10 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6;I9;I14;I18;I22;I26;I32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J6;J9;J14;J18;J22;J26;J32;J38;J44;J50;J56;J62;J67;J70;J77;J85;J93">
       <formula1>"Pass,Fail"</formula1>
     </dataValidation>
   </dataValidations>
